--- a/XCustPr/doc/60-11-20/Book2.xlsx
+++ b/XCustPr/doc/60-11-20/Book2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\ice\XCustPr\XCustPr\doc\60-11-20\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView minimized="1" xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_﻿PRC_BU_PO_HEADER_ID_PRC_BU_ID_REQ_BU_REQ_BU_ID_SO." localSheetId="1">Sheet2!$A$2:$BH$3</definedName>
     <definedName name="REQUISITION_NUMBER_REQUISITION_HEADER_ID_REQUISITI." localSheetId="0">Sheet1!$A$2:$BL$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -20,7 +26,73 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="REQUISITION_NUMBER,REQUISITION_HEADER_ID,REQUISITI" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" name="﻿PRC_BU,PO_HEADER_ID,PRC_BU_ID,REQ_BU,REQ_BU_ID,SO" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\source\ice\XCustPr\XCustPr\doc\﻿PRC_BU,PO_HEADER_ID,PRC_BU_ID,REQ_BU,REQ_BU_ID,SO." comma="1">
+      <textFields count="60">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="REQUISITION_NUMBER,REQUISITION_HEADER_ID,REQUISITI" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\source\ice\XCustPr\XCustPr\doc\REQUISITION_NUMBER,REQUISITION_HEADER_ID,REQUISITI." comma="1">
       <textFields count="64">
         <textField/>
@@ -94,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>REQUISITION_NUMBER</t>
   </si>
@@ -280,6 +352,117 @@
   </si>
   <si>
     <t>CHARGE_ACCOUNT</t>
+  </si>
+  <si>
+    <t>PRC_BU</t>
+  </si>
+  <si>
+    <t>PO_HEADER_ID</t>
+  </si>
+  <si>
+    <t>PRC_BU_ID</t>
+  </si>
+  <si>
+    <t>REQ_BU</t>
+  </si>
+  <si>
+    <t>SOLDTO_LE</t>
+  </si>
+  <si>
+    <t>PO_LINE_ID</t>
+  </si>
+  <si>
+    <t>SOLDTO_LE_ID</t>
+  </si>
+  <si>
+    <t>BILLTO_BU</t>
+  </si>
+  <si>
+    <t>BILLTO_BU_ID</t>
+  </si>
+  <si>
+    <t>SEGMENT1</t>
+  </si>
+  <si>
+    <t>BUYER</t>
+  </si>
+  <si>
+    <t>AGENT_ID</t>
+  </si>
+  <si>
+    <t>TYPE_LOOKUP_CODE</t>
+  </si>
+  <si>
+    <t>LAST_UPDATED_BY</t>
+  </si>
+  <si>
+    <t>SHIP_TO_LOCATION_ID</t>
+  </si>
+  <si>
+    <t>BILL_TO_LOCATION_ID</t>
+  </si>
+  <si>
+    <t>CURRENCY_CODE</t>
+  </si>
+  <si>
+    <t>REVISION_NUM</t>
+  </si>
+  <si>
+    <t>REVISED_DATE</t>
+  </si>
+  <si>
+    <t>APPROVED_FLAG</t>
+  </si>
+  <si>
+    <t>APPROVED_DATE</t>
+  </si>
+  <si>
+    <t>VENDOR_CONTACT_ID</t>
+  </si>
+  <si>
+    <t>SUPPLIER_NOTIF_METHOD</t>
+  </si>
+  <si>
+    <t>EMAIL_ADDRESS</t>
+  </si>
+  <si>
+    <t>SUPP_NAME</t>
+  </si>
+  <si>
+    <t>VENDOR_SITE</t>
+  </si>
+  <si>
+    <t>PAYMENT_TERM</t>
+  </si>
+  <si>
+    <t>LINE_TYPE_ID</t>
+  </si>
+  <si>
+    <t>LINE_STATUS</t>
+  </si>
+  <si>
+    <t>LINE_NUM</t>
+  </si>
+  <si>
+    <t>CATEGORY_NM</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>DESTINATION_TYPE</t>
+  </si>
+  <si>
+    <t>DELIVER_TO_LOC</t>
+  </si>
+  <si>
+    <t>PRODUCT_TYPE</t>
+  </si>
+  <si>
+    <t>ASSESSABLE_VALUE</t>
+  </si>
+  <si>
+    <t>DELIVER_TO_LOC_LINFOX</t>
   </si>
 </sst>
 </file>
@@ -327,12 +510,19 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="REQUISITION_NUMBER,REQUISITION_HEADER_ID,REQUISITI." connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="REQUISITION_NUMBER,REQUISITION_HEADER_ID,REQUISITI." connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="﻿PRC_BU,PO_HEADER_ID,PRC_BU_ID,REQ_BU,REQ_BU_ID,SO." connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,7 +568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +603,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BG8" sqref="BG8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,12 +1259,434 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
